--- a/test_scripts/edge/QS006_demoqa_testscript.xlsx
+++ b/test_scripts/edge/QS006_demoqa_testscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9704677E-EB21-4304-9FF3-7378153D2759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8DCBD2-5B32-4FE8-A7FE-F1BCB96537F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3916CC0C-2E25-4DCF-A97F-45AF0FE46343}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>

--- a/test_scripts/edge/QS006_demoqa_testscript.xlsx
+++ b/test_scripts/edge/QS006_demoqa_testscript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allprojects\web_automation_htmltopdf\test_scripts\edge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8DCBD2-5B32-4FE8-A7FE-F1BCB96537F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA9CC14-1217-4EF5-9DF6-D6D9EC4B26A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4369D99C-3FCA-451D-9ADF-0150CDA12363}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>Upload button</t>
   </si>
   <si>
-    <t>C:\Users\vinay\Desktop\chromedgerunonlinux.txt</t>
-  </si>
-  <si>
     <t>demoqa_home_form_pic_css</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>demoqa_home_form_sub_close_css</t>
+  </si>
+  <si>
+    <t>chromedgerunonlinux.txt</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1070,10 +1070,10 @@
         <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -1092,13 +1092,13 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
         <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1118,10 +1118,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,10 +1141,10 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,10 +1152,10 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1163,10 +1163,10 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
